--- a/biology/Botanique/Apteropteris/Apteropteris.xlsx
+++ b/biology/Botanique/Apteropteris/Apteropteris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Apteropteris est un genre obsolète de la famille des Hyménophyllacées, mais aussi un sous-genre et une section issus des différentes révisions de la famille. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La principale caractéristique du genre est un limbe réduit aux seules nervures avec la présence d'une abondante pilosité.
 </t>
@@ -542,7 +556,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La liste des espèces est issue de l'index IPNI - The international plant names index à la date de mai 2012 :
 Apteropteris applanata A.M.Gray &amp; R.G.Williams (1979) : doit être classé dans le genre Hymenophyllum, sous-genre Sphaerocionium
@@ -574,13 +590,15 @@
           <t>Historique et position taxinomique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Edwin Bingham Copeland crée d'abord, en 1937, un sous-genre du genre Hymenophyllum : Hymenophyllum subgen Apteropteris[1].
-En 1938, il en fait un genre à part entière avec comme espèce type et unique Apteropteris malingii (Hook.) Copel.[2].
-En 1968, Conrad Vernon Morton reprend le nom Apteropteris pour un faire une section du sous-genre Sphaerocionium du genre Hymenophyllum[3].
-En 1982, Kunio Iwatsuki en fait un sous-genre du genre Sphaerocionium[4].
-En 2006, Atsushi Ebihara, Jean-Yves Dubuisson, Kunio Iwatsuki, Sabine Hennequin et Motomi Ito placent les deux espèces qui ont été placées dans ce genre dans le genre Hymenophyllum, sous-genre Sphaerocionium[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Edwin Bingham Copeland crée d'abord, en 1937, un sous-genre du genre Hymenophyllum : Hymenophyllum subgen Apteropteris.
+En 1938, il en fait un genre à part entière avec comme espèce type et unique Apteropteris malingii (Hook.) Copel..
+En 1968, Conrad Vernon Morton reprend le nom Apteropteris pour un faire une section du sous-genre Sphaerocionium du genre Hymenophyllum.
+En 1982, Kunio Iwatsuki en fait un sous-genre du genre Sphaerocionium.
+En 2006, Atsushi Ebihara, Jean-Yves Dubuisson, Kunio Iwatsuki, Sabine Hennequin et Motomi Ito placent les deux espèces qui ont été placées dans ce genre dans le genre Hymenophyllum, sous-genre Sphaerocionium.
 En tant que genre, il est donc synonyme actuellement de Hymenophyllum subgen. Sphaerocionium.
 </t>
         </is>
